--- a/biology/Botanique/Stipa_gigantea/Stipa_gigantea.xlsx
+++ b/biology/Botanique/Stipa_gigantea/Stipa_gigantea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stipa gigantea est une espèce de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Pooideae, originaire de l'ouest du bassin méditerranéen.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stipa gigantea est une plante herbacée vivace, cespiteuse, aux feuilles à limbe étroit de couleur gris-vert, qui crée des touffes de feuillage de 50 à 100 cm de diamètre. C'est une plante à feuillage persistant à semi-persistant, selon le climat[2].
-La plante produit des inflorescences en panicules lâches, qui s'élèvent au-dessus du feuillage jusqu'à 2 m à 2,5 m de haut, de couleur lavande argentée à la fin du printemps passant à une teinte dorée rayonnante en été et persistent l'hiver en brunissant[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stipa gigantea est une plante herbacée vivace, cespiteuse, aux feuilles à limbe étroit de couleur gris-vert, qui crée des touffes de feuillage de 50 à 100 cm de diamètre. C'est une plante à feuillage persistant à semi-persistant, selon le climat.
+La plante produit des inflorescences en panicules lâches, qui s'élèvent au-dessus du feuillage jusqu'à 2 m à 2,5 m de haut, de couleur lavande argentée à la fin du printemps passant à une teinte dorée rayonnante en été et persistent l'hiver en brunissant,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stipa gigantea a une aire de répartition originelle limitée au sud-ouest de l'Europe (Espagne, Portugal) et au nord-ouest de l'Afrique (Maroc)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stipa gigantea a une aire de répartition originelle limitée au sud-ouest de l'Europe (Espagne, Portugal) et au nord-ouest de l'Afrique (Maroc).
 C'est une espèce hémicryptophyte qui préfère les sols sableux acides et se rencontre dans l'intérieur de la péninsule ibérique dans des zones sèches boisées à Quercus ilex où elle résiste très bien aux gelées.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 octobre 2016)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 octobre 2016) :
 sous-espèce Stipa gigantea subsp. donyanae F.M.Vázquez &amp; Devesa (1996)
 sous-espèce Stipa gigantea subsp. gigantea
 sous-espèce Stipa gigantea subsp. maroccana (Pau &amp; Font Quer) F.M.Vázquez &amp; Devesa (1997)</t>
@@ -608,9 +626,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (12 octobre 2016)[6] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (12 octobre 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Stipa gigantea subsp. donyanae F.M. Vázquez &amp; Devesa
 sous-espèce Stipa gigantea subsp. gigantea
 sous-espèce Stipa gigantea subsp. lagascae (Roem. &amp; Schult.) Trab.
@@ -648,9 +668,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (12 octobre 2016)[7] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (12 octobre 2016) :
 Avena cavanillesii Lag.
 Avena striata Schousb. ex Willk. &amp; Lange, pro syn.
 Celtica gigantea (Link) F.M.Vázquez &amp; Barkworth
@@ -695,13 +717,15 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stipa gigantea est cultivée comme plante ornementale soit en touffe isolée, soit en masse dans les jardins particuliers ou dans les parcs publics[3].
-On l'emploie dans les jardins xérophiles et en climat méditerranéen[2].
-Les inflorescences dorées sont très décoratives et attrayantes, en particulier quand elles sont éclairées à contre-jour par le soleil[8].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stipa gigantea est cultivée comme plante ornementale soit en touffe isolée, soit en masse dans les jardins particuliers ou dans les parcs publics.
+On l'emploie dans les jardins xérophiles et en climat méditerranéen.
+Les inflorescences dorées sont très décoratives et attrayantes, en particulier quand elles sont éclairées à contre-jour par le soleil.
 On peut aussi les utiliser dans la confection de bouquets secs.
-En Angleterre, la Société royale d'horticulure a décerne le prix du mérite horticole (Award of Garden Merit) à cette plante[9].
+En Angleterre, la Société royale d'horticulure a décerne le prix du mérite horticole (Award of Garden Merit) à cette plante.
 </t>
         </is>
       </c>
